--- a/data/config.xlsx
+++ b/data/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UiPath Studio\Tes Job RPA (Dana)\UiBank API Method\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ACA5838-6F4A-4F8E-BBB8-B80F3478595A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACCEE8C9-A000-494D-AEAA-20938B6B62DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
